--- a/singleVis/plot/plot_results/ablation_smoothness_nn.xlsx
+++ b/singleVis/plot/plot_results/ablation_smoothness_nn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>period</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
@@ -490,10 +495,13 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.694</v>
+      <c r="H2" t="n">
+        <v>1.107</v>
       </c>
     </row>
     <row r="3">
@@ -521,10 +529,13 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.678</v>
+      <c r="H3" t="n">
+        <v>1.096</v>
       </c>
     </row>
     <row r="4">
@@ -552,10 +563,13 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.26</v>
+      <c r="H4" t="n">
+        <v>1.123</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +597,13 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.261</v>
+      <c r="H5" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="6">
@@ -614,10 +631,13 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.239</v>
+      <c r="H6" t="n">
+        <v>1.118</v>
       </c>
     </row>
     <row r="7">
@@ -645,10 +665,13 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.243</v>
+      <c r="H7" t="n">
+        <v>1.104</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +699,13 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.605</v>
+      <c r="H8" t="n">
+        <v>1.141</v>
       </c>
     </row>
     <row r="9">
@@ -707,10 +733,13 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.611</v>
+      <c r="H9" t="n">
+        <v>1.128</v>
       </c>
     </row>
     <row r="10">
@@ -738,10 +767,13 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.623</v>
+      <c r="H10" t="n">
+        <v>1.135</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +801,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
         <v>6</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.621</v>
+      <c r="H11" t="n">
+        <v>1.121</v>
       </c>
     </row>
     <row r="12">
@@ -800,10 +835,13 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
         <v>11</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.382</v>
+      <c r="H12" t="n">
+        <v>1.185</v>
       </c>
     </row>
     <row r="13">
@@ -831,10 +869,13 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.378</v>
+      <c r="H13" t="n">
+        <v>1.167</v>
       </c>
     </row>
     <row r="14">
@@ -862,10 +903,13 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.477</v>
+      <c r="H14" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="15">
@@ -893,10 +937,13 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.475</v>
+      <c r="H15" t="n">
+        <v>1.132</v>
       </c>
     </row>
     <row r="16">
@@ -924,10 +971,13 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
         <v>6</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.474</v>
+      <c r="H16" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="17">
@@ -955,10 +1005,13 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
         <v>6</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.476</v>
+      <c r="H17" t="n">
+        <v>1.134</v>
       </c>
     </row>
     <row r="18">
@@ -986,10 +1039,13 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
         <v>11</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.02</v>
+      <c r="H18" t="n">
+        <v>1.208</v>
       </c>
     </row>
     <row r="19">
@@ -1017,10 +1073,13 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
         <v>11</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.017</v>
+      <c r="H19" t="n">
+        <v>1.188</v>
       </c>
     </row>
     <row r="20">
@@ -1048,10 +1107,13 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.215</v>
+      <c r="H20" t="n">
+        <v>1.036</v>
       </c>
     </row>
     <row r="21">
@@ -1079,10 +1141,13 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.215</v>
+      <c r="H21" t="n">
+        <v>1.031</v>
       </c>
     </row>
     <row r="22">
@@ -1110,10 +1175,13 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="n">
         <v>6</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.437</v>
+      <c r="H22" t="n">
+        <v>0.925</v>
       </c>
     </row>
     <row r="23">
@@ -1141,10 +1209,13 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" t="n">
         <v>6</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.434</v>
+      <c r="H23" t="n">
+        <v>0.923</v>
       </c>
     </row>
     <row r="24">
@@ -1172,10 +1243,13 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
         <v>11</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.115</v>
+      <c r="H24" t="n">
+        <v>1.029</v>
       </c>
     </row>
     <row r="25">
@@ -1203,10 +1277,13 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" t="n">
         <v>11</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.117</v>
+      <c r="H25" t="n">
+        <v>1.019</v>
       </c>
     </row>
     <row r="26">
@@ -1234,10 +1311,13 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.362</v>
+      <c r="H26" t="n">
+        <v>1.088</v>
       </c>
     </row>
     <row r="27">
@@ -1265,10 +1345,13 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" t="n">
         <v>3</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.364</v>
+      <c r="H27" t="n">
+        <v>1.075</v>
       </c>
     </row>
     <row r="28">
@@ -1296,10 +1379,13 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
         <v>9</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.597</v>
+      <c r="H28" t="n">
+        <v>1.169</v>
       </c>
     </row>
     <row r="29">
@@ -1327,10 +1413,13 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="n">
         <v>9</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.595</v>
+      <c r="H29" t="n">
+        <v>1.148</v>
       </c>
     </row>
     <row r="30">
@@ -1358,10 +1447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
         <v>18</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.546</v>
+      <c r="H30" t="n">
+        <v>1.266</v>
       </c>
     </row>
     <row r="31">
@@ -1389,10 +1481,13 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="n">
         <v>18</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.542</v>
+      <c r="H31" t="n">
+        <v>1.235</v>
       </c>
     </row>
     <row r="32">
@@ -1420,10 +1515,13 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
         <v>41</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.667</v>
+      <c r="H32" t="n">
+        <v>2.088</v>
       </c>
     </row>
     <row r="33">
@@ -1451,10 +1549,13 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" t="n">
         <v>41</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.654</v>
+      <c r="H33" t="n">
+        <v>1.994</v>
       </c>
     </row>
     <row r="34">
@@ -1482,10 +1583,13 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.646</v>
+      <c r="H34" t="n">
+        <v>1.065</v>
       </c>
     </row>
     <row r="35">
@@ -1513,10 +1617,13 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" t="n">
         <v>3</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.646</v>
+      <c r="H35" t="n">
+        <v>1.056</v>
       </c>
     </row>
     <row r="36">
@@ -1544,10 +1651,13 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" t="n">
         <v>9</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.553</v>
+      <c r="H36" t="n">
+        <v>1.123</v>
       </c>
     </row>
     <row r="37">
@@ -1575,10 +1685,13 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" t="n">
         <v>9</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.5570000000000001</v>
+      <c r="H37" t="n">
+        <v>1.106</v>
       </c>
     </row>
     <row r="38">
@@ -1606,10 +1719,13 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
         <v>18</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.32</v>
+      <c r="H38" t="n">
+        <v>1.146</v>
       </c>
     </row>
     <row r="39">
@@ -1637,10 +1753,13 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
         <v>18</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.323</v>
+      <c r="H39" t="n">
+        <v>1.127</v>
       </c>
     </row>
     <row r="40">
@@ -1668,10 +1787,13 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="n">
         <v>41</v>
       </c>
-      <c r="G40" t="n">
-        <v>-0.007</v>
+      <c r="H40" t="n">
+        <v>1.669</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1821,13 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" t="n">
         <v>41</v>
       </c>
-      <c r="G41" t="n">
-        <v>-0.011</v>
+      <c r="H41" t="n">
+        <v>1.612</v>
       </c>
     </row>
     <row r="42">
@@ -1730,10 +1855,13 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.465</v>
+      <c r="H42" t="n">
+        <v>1.026</v>
       </c>
     </row>
     <row r="43">
@@ -1761,10 +1889,13 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.466</v>
+      <c r="H43" t="n">
+        <v>1.022</v>
       </c>
     </row>
     <row r="44">
@@ -1792,10 +1923,13 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
         <v>9</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.382</v>
+      <c r="H44" t="n">
+        <v>1.093</v>
       </c>
     </row>
     <row r="45">
@@ -1823,10 +1957,13 @@
         </is>
       </c>
       <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
         <v>9</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.382</v>
+      <c r="H45" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="46">
@@ -1854,10 +1991,13 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" t="n">
         <v>18</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.257</v>
+      <c r="H46" t="n">
+        <v>1.276</v>
       </c>
     </row>
     <row r="47">
@@ -1885,10 +2025,13 @@
         </is>
       </c>
       <c r="F47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" t="n">
         <v>18</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.255</v>
+      <c r="H47" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="48">
@@ -1916,10 +2059,13 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="n">
         <v>41</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.149</v>
+      <c r="H48" t="n">
+        <v>1.604</v>
       </c>
     </row>
     <row r="49">
@@ -1947,10 +2093,3277 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" t="n">
         <v>41</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.151</v>
+      <c r="H49" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>15</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.232</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>15</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.208</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>15</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.269</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>15</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.239</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>15</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>15</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.227</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>15</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.307</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>15</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.275</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>15</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.294</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>15</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.264</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>15</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.391</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>15</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.353</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>15</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.321</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>15</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.287</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>15</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.324</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>15</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.289</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>15</v>
+      </c>
+      <c r="G66" t="n">
+        <v>11</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.441</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>15</v>
+      </c>
+      <c r="G67" t="n">
+        <v>11</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.398</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>15</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>15</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.072</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>15</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>15</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>15</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.142</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>15</v>
+      </c>
+      <c r="G73" t="n">
+        <v>11</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>15</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.185</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>15</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.163</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>15</v>
+      </c>
+      <c r="G76" t="n">
+        <v>9</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.372</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>15</v>
+      </c>
+      <c r="G77" t="n">
+        <v>9</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>15</v>
+      </c>
+      <c r="G78" t="n">
+        <v>18</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.564</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>15</v>
+      </c>
+      <c r="G79" t="n">
+        <v>18</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.497</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>15</v>
+      </c>
+      <c r="G80" t="n">
+        <v>41</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3.113</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>15</v>
+      </c>
+      <c r="G81" t="n">
+        <v>41</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.937</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>15</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>15</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.122</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>15</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.279</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>15</v>
+      </c>
+      <c r="G85" t="n">
+        <v>9</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.243</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" t="n">
+        <v>18</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.319</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="n">
+        <v>18</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.279</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="n">
+        <v>41</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.291</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="n">
+        <v>41</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.189</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.059</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>15</v>
+      </c>
+      <c r="G92" t="n">
+        <v>9</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>15</v>
+      </c>
+      <c r="G93" t="n">
+        <v>9</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.176</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>15</v>
+      </c>
+      <c r="G94" t="n">
+        <v>18</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.585</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>15</v>
+      </c>
+      <c r="G95" t="n">
+        <v>18</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.513</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>15</v>
+      </c>
+      <c r="G96" t="n">
+        <v>41</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.175</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>15</v>
+      </c>
+      <c r="G97" t="n">
+        <v>41</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2.073</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>20</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.392</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.354</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>20</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.461</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>20</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.412</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>20</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.435</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>mnist</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>20</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.387</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>20</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.523</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.469</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>20</v>
+      </c>
+      <c r="G106" t="n">
+        <v>6</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.503</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>20</v>
+      </c>
+      <c r="G107" t="n">
+        <v>6</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.449</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>20</v>
+      </c>
+      <c r="G108" t="n">
+        <v>11</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.655</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>20</v>
+      </c>
+      <c r="G109" t="n">
+        <v>11</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>20</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.545</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>20</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.487</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>20</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.547</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>20</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.489</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>20</v>
+      </c>
+      <c r="G114" t="n">
+        <v>11</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.742</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>20</v>
+      </c>
+      <c r="G115" t="n">
+        <v>11</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.669</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.132</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>20</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.966</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="n">
+        <v>6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.961</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>20</v>
+      </c>
+      <c r="G120" t="n">
+        <v>11</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.288</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>fmnist</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>20</v>
+      </c>
+      <c r="G121" t="n">
+        <v>11</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>20</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>20</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.275</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>20</v>
+      </c>
+      <c r="G124" t="n">
+        <v>9</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.629</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>20</v>
+      </c>
+      <c r="G125" t="n">
+        <v>9</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.551</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>20</v>
+      </c>
+      <c r="G126" t="n">
+        <v>18</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>20</v>
+      </c>
+      <c r="G127" t="n">
+        <v>18</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.833</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Train)</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>20</v>
+      </c>
+      <c r="G128" t="n">
+        <v>41</v>
+      </c>
+      <c r="H128" t="n">
+        <v>4.314</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>DeepDebugger</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>DeepDebugger(Test)</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>20</v>
+      </c>
+      <c r="G129" t="n">
+        <v>41</v>
+      </c>
+      <c r="H129" t="n">
+        <v>4.051</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>20</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.246</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>20</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>20</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>20</v>
+      </c>
+      <c r="G133" t="n">
+        <v>9</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>20</v>
+      </c>
+      <c r="G134" t="n">
+        <v>18</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.545</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>20</v>
+      </c>
+      <c r="G135" t="n">
+        <v>18</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.476</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>-SS(Train)</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>20</v>
+      </c>
+      <c r="G136" t="n">
+        <v>41</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3.026</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>no_Smoothness</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>-SS(Test)</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>20</v>
+      </c>
+      <c r="G137" t="n">
+        <v>41</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.867</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>20</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.102</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>20</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.086</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>20</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.349</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G141" t="n">
+        <v>9</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>20</v>
+      </c>
+      <c r="G142" t="n">
+        <v>18</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.968</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>20</v>
+      </c>
+      <c r="G143" t="n">
+        <v>18</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.854</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>-TL(Train)</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>20</v>
+      </c>
+      <c r="G144" t="n">
+        <v>41</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2.847</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>cifar10</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>no_TL</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>-TL(Test)</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>20</v>
+      </c>
+      <c r="G145" t="n">
+        <v>41</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2.696</v>
       </c>
     </row>
   </sheetData>
